--- a/test_data/wardrobe_order_002.xlsx
+++ b/test_data/wardrobe_order_002.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
@@ -562,11 +562,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DD-HS00-896-554-16</t>
+          <t>DD-HS00-704-554-16</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>896</v>
+        <v>704</v>
       </c>
       <c r="D4" t="n">
         <v>554</v>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -591,16 +591,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>顶底板（单门柜体）</t>
+          <t>顶底板（双门柜体）</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DD-HS00-368-554-16</t>
+          <t>DD-HS00-896-554-16</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>368</v>
+        <v>896</v>
       </c>
       <c r="D5" t="n">
         <v>554</v>
@@ -625,16 +625,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>顶底板（单门柜体）</t>
+          <t>顶底板（双门柜体）</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DD-HS00-432-554-16</t>
+          <t>DD-HS00-768-554-16</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>432</v>
+        <v>768</v>
       </c>
       <c r="D6" t="n">
         <v>554</v>
@@ -648,33 +648,33 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>抽屉层隔板（E/F类柜体）与"抽屉组件"搭配使用</t>
+          <t>顶底板（单门柜体）</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CTCG-HS00-768-554-25</t>
+          <t>DD-HS00-336-554-16</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>768</v>
+        <v>336</v>
       </c>
       <c r="D7" t="n">
         <v>554</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -686,23 +686,23 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>层隔板（单门柜体）</t>
+          <t>层隔板（双门柜体）</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CG-HS00-368-554-25</t>
+          <t>CG-HS00-896-554-25</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>368</v>
+        <v>896</v>
       </c>
       <c r="D8" t="n">
         <v>554</v>
@@ -727,16 +727,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>抽屉层隔板（E/F类柜体）与"抽屉组件"搭配使用</t>
+          <t>层隔板（单门柜体）</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CTCG-HS00-864-554-25</t>
+          <t>CG-HS00-432-554-25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>864</v>
+        <v>432</v>
       </c>
       <c r="D9" t="n">
         <v>554</v>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,16 +761,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>抽屉层隔板（E/F类柜体）与"抽屉组件"搭配使用</t>
+          <t>层隔板（单门柜体）</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CTCG-HS00-736-554-25</t>
+          <t>CG-HS00-400-554-25</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>736</v>
+        <v>400</v>
       </c>
       <c r="D10" t="n">
         <v>554</v>
@@ -784,27 +784,27 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>抽屉层隔板（E/F类柜体）与"抽屉组件"搭配使用</t>
+          <t>层隔板（双门柜体）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CTCG-HS00-896-554-25</t>
+          <t>CG-HS00-832-554-25</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>896</v>
+        <v>832</v>
       </c>
       <c r="D11" t="n">
         <v>554</v>
@@ -818,33 +818,33 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>后背板（单门柜体）</t>
+          <t>层隔板（双门柜体）</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HB-HS00-2256-336-12</t>
+          <t>CG-HS00-736-554-25</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2256</v>
+        <v>736</v>
       </c>
       <c r="D12" t="n">
-        <v>336</v>
+        <v>554</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -863,60 +863,60 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>门板（L/R）</t>
+          <t>抽屉层隔板（E/F类柜体）与"抽屉组件"搭配使用</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MB(R)-(门板花色)-2320-397-16</t>
+          <t>CTCG-HS00-800-554-25</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2320</v>
+        <v>800</v>
       </c>
       <c r="D13" t="n">
-        <v>397</v>
+        <v>554</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(门板花色)</t>
+          <t>HS00</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>门板（L/R）</t>
+          <t>后背板（单门柜体）</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MB(L)-(门板花色)-2320-397-16</t>
+          <t>HB-HS00-2352-336-12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2320</v>
+        <v>2352</v>
       </c>
       <c r="D14" t="n">
-        <v>397</v>
+        <v>336</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(门板花色)</t>
+          <t>HS00</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -924,33 +924,33 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>双抽屉组件</t>
+          <t>门板（L/R）</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>抽屉拉板-HS00-438-106-12</t>
+          <t>MB(R)-(门板花色)-2320-397-16</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>438</v>
+        <v>2320</v>
       </c>
       <c r="D15" t="n">
-        <v>106</v>
+        <v>397</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>HS00</t>
+          <t>(门板花色)</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -958,33 +958,33 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>mixed</t>
+          <t>fixed</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>单抽屉组件</t>
+          <t>门板（L/R）</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>536抽屉底板-HS00-536-448-5</t>
+          <t>MB(R)-(门板花色)-2288-429-16</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>536</v>
+        <v>2288</v>
       </c>
       <c r="D16" t="n">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>HS00</t>
+          <t>(门板花色)</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -992,37 +992,37 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>mixed</t>
+          <t>fixed</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>单抽屉组件</t>
+          <t>门板（L/R）</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>抽屉侧板(R)-HS00-450-138-12</t>
+          <t>MB(L)-(门板花色)-2320-445-16</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>450</v>
+        <v>2320</v>
       </c>
       <c r="D17" t="n">
-        <v>138</v>
+        <v>445</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>HS00</t>
+          <t>(门板花色)</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1033,16 +1033,16 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>底支撑(单门柜体）</t>
+          <t>底支撑(双门柜体）</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DC-HS02-368-82-16</t>
+          <t>DC-HS02-704-82-16</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>368</v>
+        <v>704</v>
       </c>
       <c r="D18" t="n">
         <v>82</v>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1067,16 +1067,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>底支撑(双门柜体）</t>
+          <t>底支撑(单门柜体）</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DC-HS01-736-82-16</t>
+          <t>DC-HS99-432-82-16</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>736</v>
+        <v>432</v>
       </c>
       <c r="D19" t="n">
         <v>82</v>
@@ -1086,81 +1086,13 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>HS01</t>
+          <t>HS99</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>底支撑(双门柜体）</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DC-HS99-736-82-16</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>736</v>
-      </c>
-      <c r="D20" t="n">
-        <v>82</v>
-      </c>
-      <c r="E20" t="n">
-        <v>16</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>HS99</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>底支撑(双门柜体）</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DC-HS98-672-82-16</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>672</v>
-      </c>
-      <c r="D21" t="n">
-        <v>82</v>
-      </c>
-      <c r="E21" t="n">
-        <v>16</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>HS98</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" t="inlineStr">
         <is>
           <t>mixed</t>
         </is>

--- a/test_data/wardrobe_order_002.xlsx
+++ b/test_data/wardrobe_order_002.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Products" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,11 +562,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DD-HS00-704-554-16</t>
+          <t>DD-HS00-800-554-16</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>704</v>
+        <v>800</v>
       </c>
       <c r="D4" t="n">
         <v>554</v>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -591,16 +591,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>顶底板（双门柜体）</t>
+          <t>顶底板（单门柜体）</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DD-HS00-896-554-16</t>
+          <t>DD-HS00-368-554-16</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>896</v>
+        <v>368</v>
       </c>
       <c r="D5" t="n">
         <v>554</v>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -625,22 +625,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>顶底板（双门柜体）</t>
+          <t>层隔板（单门柜体）</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DD-HS00-768-554-16</t>
+          <t>CG-HS00-432-554-25</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>768</v>
+        <v>432</v>
       </c>
       <c r="D6" t="n">
         <v>554</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -659,22 +659,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>顶底板（单门柜体）</t>
+          <t>层隔板（双门柜体）</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DD-HS00-336-554-16</t>
+          <t>CG-HS00-896-554-25</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>336</v>
+        <v>896</v>
       </c>
       <c r="D7" t="n">
         <v>554</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -693,16 +693,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>层隔板（双门柜体）</t>
+          <t>层隔板（单门柜体）</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CG-HS00-896-554-25</t>
+          <t>CG-HS00-368-554-25</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>896</v>
+        <v>368</v>
       </c>
       <c r="D8" t="n">
         <v>554</v>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -727,16 +727,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>层隔板（单门柜体）</t>
+          <t>层隔板（双门柜体）</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CG-HS00-432-554-25</t>
+          <t>CG-HS00-800-554-25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>432</v>
+        <v>800</v>
       </c>
       <c r="D9" t="n">
         <v>554</v>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,22 +761,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>层隔板（单门柜体）</t>
+          <t>后背板（双门柜体）为(1+1)组合</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CG-HS00-400-554-25</t>
+          <t>HB-HS00-2352-336-12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>400</v>
+        <v>2352</v>
       </c>
       <c r="D10" t="n">
-        <v>554</v>
+        <v>336</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -795,30 +795,30 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>层隔板（双门柜体）</t>
+          <t>门板（L/R）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CG-HS00-832-554-25</t>
+          <t>MB(R)-HS97-2256-349-16</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>832</v>
+        <v>2256</v>
       </c>
       <c r="D11" t="n">
-        <v>554</v>
+        <v>349</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>HS00</t>
+          <t>HS97</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -829,26 +829,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>层隔板（双门柜体）</t>
+          <t>门板（L/R）</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CG-HS00-736-554-25</t>
+          <t>MB(L)-HS98-2320-413-16</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>736</v>
+        <v>2320</v>
       </c>
       <c r="D12" t="n">
-        <v>554</v>
+        <v>413</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>HS00</t>
+          <t>HS98</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -863,30 +863,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>抽屉层隔板（E/F类柜体）与"抽屉组件"搭配使用</t>
+          <t>门板（L/R）</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CTCG-HS00-800-554-25</t>
+          <t>MB(L)-HS98-2256-381-16</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>800</v>
+        <v>2256</v>
       </c>
       <c r="D13" t="n">
-        <v>554</v>
+        <v>381</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>HS00</t>
+          <t>HS98</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -897,19 +897,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>后背板（单门柜体）</t>
+          <t>双抽屉组件</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HB-HS00-2352-336-12</t>
+          <t>622抽屉后板-HS00-622-138-12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2352</v>
+        <v>622</v>
       </c>
       <c r="D14" t="n">
-        <v>336</v>
+        <v>138</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -931,98 +931,98 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>门板（L/R）</t>
+          <t>单抽屉组件</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MB(R)-(门板花色)-2320-397-16</t>
+          <t>抽屉侧板(R)-HS00-450-138-12</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2320</v>
+        <v>450</v>
       </c>
       <c r="D15" t="n">
-        <v>397</v>
+        <v>138</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(门板花色)</t>
+          <t>HS00</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>门板（L/R）</t>
+          <t>单抽屉组件</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MB(R)-(门板花色)-2288-429-16</t>
+          <t>CTE1抽屉吊板(R)-HS00-534-179-16</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2288</v>
+        <v>534</v>
       </c>
       <c r="D16" t="n">
-        <v>429</v>
+        <v>179</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(门板花色)</t>
+          <t>HS00</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>门板（L/R）</t>
+          <t>底支撑(双门柜体）</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MB(L)-(门板花色)-2320-445-16</t>
+          <t>DC-HS03-832-82-16</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2320</v>
+        <v>832</v>
       </c>
       <c r="D17" t="n">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(门板花色)</t>
+          <t>HS03</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1038,11 +1038,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DC-HS02-704-82-16</t>
+          <t>DC-HS97-864-82-16</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>704</v>
+        <v>864</v>
       </c>
       <c r="D18" t="n">
         <v>82</v>
@@ -1052,41 +1052,41 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HS02</t>
+          <t>HS97</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>底支撑(单门柜体）</t>
+          <t>靠墙档条</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DC-HS99-432-82-16</t>
+          <t>TK16-HS01-2434-60–16</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>432</v>
+        <v>800</v>
       </c>
       <c r="D19" t="n">
-        <v>82</v>
+        <v>600</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>HS99</t>
+          <t>HS00</t>
         </is>
       </c>
       <c r="G19" t="n">
